--- a/biology/Botanique/Parc_Chuit/Parc_Chuit.xlsx
+++ b/biology/Botanique/Parc_Chuit/Parc_Chuit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Chuit est un jardin public de la ville Suisse de Lancy, dans le quartier de Surville au Petit-Lancy. 
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc a été nommé d'après Philippe Chuit (1er mai 1866, Genève - 30 janvier 1939, Lancy), un chimiste suisse et pionnier de la création de parfums synthétiques.
 Ce parc était l'ancienne propriété de madame Thérèse Chuit-Firmenich (1875-1968), veuve de Philippe Chuit. La propriété a été achetée par la commune de Lancy en 1969. 
-Le parc double de surface avec l'acquisition en 2017 par la ville de Lancy d'une grande parcelle privée située au sud du parc (parcelle n° 1652, famille Aubert, 21 860 m2, dont la villa est inscrite à l’inventaire cantonal en 1982)[1].
+Le parc double de surface avec l'acquisition en 2017 par la ville de Lancy d'une grande parcelle privée située au sud du parc (parcelle n° 1652, famille Aubert, 21 860 m2, dont la villa est inscrite à l’inventaire cantonal en 1982).
 </t>
         </is>
       </c>
